--- a/test plan.xlsx
+++ b/test plan.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C51622B-F132-164A-987E-3E3368E1B05B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E6D997-407C-9043-94A1-1399F5535175}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" xr2:uid="{57138529-CBCC-8F48-9E59-8E612E3F45D9}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16460" activeTab="1" xr2:uid="{57138529-CBCC-8F48-9E59-8E612E3F45D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="122">
   <si>
     <t>Activity Planned</t>
   </si>
@@ -319,6 +320,78 @@
   </si>
   <si>
     <t>Development &amp; Test Team</t>
+  </si>
+  <si>
+    <t>Depedency</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Confirm the availability of test data in Preprod environments for testing purposes.</t>
+  </si>
+  <si>
+    <t>The development team must confirm the availability of test data in PreProd, which was initially loaded as part of the performance tuning project. This data will be reused for E2P to prevent incurring data load costs in PreProd.</t>
+  </si>
+  <si>
+    <t>Verified the data's availability, utilizing data loaded during the performance tuning project. The same dataset will be reused to mitigate data load costs in preprod. Nonetheless, we've identified a slight risk of data mismatches between the available dataset and the production data. While preparing for UAT, we are working to identify and calibrate these deviations.</t>
+  </si>
+  <si>
+    <t>Engage in a discussion regarding the optimized data volume needed for conducting UAT to verify the implementation of the E2P fix and reach an agreement with the Project Team.</t>
+  </si>
+  <si>
+    <t>Consult with the Project team regarding the provided cloud cost estimation. Share the estimation to the Cloud Council for approval for both preproduction and production releases.</t>
+  </si>
+  <si>
+    <t>Anticipating approval from the Cloud Council by Friday to facilitate planning for the preprod release scheduled for Monday.</t>
+  </si>
+  <si>
+    <t>22/02/2024 - 23/02/2024</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Perform a data quality analysis at the fact level in the pre-production layer using the existing data loaded as part of the tuning project.</t>
+  </si>
+  <si>
+    <t>Detect any variances from the previously identified deviations as part of the performance tuning project. Analyze to adjust the discrepancies in counts, thereby determining the expected percentage of data deviation between the production and pre-production environments.</t>
+  </si>
+  <si>
+    <t>Secure code review approval for deploying codes to preprod following the receipt of Cloud Council approval.</t>
+  </si>
+  <si>
+    <t>Ensure that code review approval is secured and the code is prepared for deployment to preprod.</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Create a test version of the E2P report from preprod data for pre vs. post comparison during UAT.</t>
+  </si>
+  <si>
+    <t>Report Team</t>
+  </si>
+  <si>
+    <t>26/02/2024 - 29/02/2024</t>
+  </si>
+  <si>
+    <t>Perform the initial data load in preprod with the fix and notify the test &amp; Report team to perform data validation.</t>
+  </si>
+  <si>
+    <t>Test &amp; Project Team</t>
+  </si>
+  <si>
+    <t>Development, Test &amp; Report Team</t>
+  </si>
+  <si>
+    <t>8, 9, 10</t>
   </si>
 </sst>
 </file>
@@ -366,12 +439,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -688,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDBBA57-8377-4448-90DC-ABE2E3793150}">
   <dimension ref="B2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1327,4 +1427,410 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F336C516-4F01-5E40-9B1F-6CC7D60B9C01}">
+  <dimension ref="A3:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="57.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="62.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="13">
+        <v>45344</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="13">
+        <v>45344</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="11">
+        <v>45345</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="11">
+        <v>45345</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="7">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="11">
+        <v>45348</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="11">
+        <v>45348</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="11">
+        <v>45348</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>9</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="7">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="7">
+        <v>9</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="9">
+        <v>11</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="9">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="9">
+        <v>13</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="7">
+        <v>12</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>